--- a/biology/Médecine/Mibéfradil/Mibéfradil.xlsx
+++ b/biology/Médecine/Mibéfradil/Mibéfradil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mib%C3%A9fradil</t>
+          <t>Mibéfradil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le mibéfradil est un inhibiteur sélectif des canaux calciques de type T. Retiré de la vente en 1998[2],[3], il était utilisé dans le traitement de l'hypertension de l'angine de poitrine chronique.
+Le mibéfradil est un inhibiteur sélectif des canaux calciques de type T. Retiré de la vente en 1998 il était utilisé dans le traitement de l'hypertension de l'angine de poitrine chronique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mib%C3%A9fradil</t>
+          <t>Mibéfradil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
